--- a/medicine/Mort/Neuer_Friedhof_(Potsdam)/Neuer_Friedhof_(Potsdam).xlsx
+++ b/medicine/Mort/Neuer_Friedhof_(Potsdam)/Neuer_Friedhof_(Potsdam).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Neuer Friedhof[1] (cimetière nouveau) est un cimetière de la ville de Potsdam en Allemagne près de Berlin. Il a été conçu en 1867 d'après les plans de Peter Joseph Lenné et plusieurs fois agrandi, la dernière fois en 1954. Il s'étend aujourd'hui sur 25 789 m². Son entrée principale se trouve au 25 Heinrich-Mann-Allee, près de l'Alter Friedhof.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Neuer Friedhof (cimetière nouveau) est un cimetière de la ville de Potsdam en Allemagne près de Berlin. Il a été conçu en 1867 d'après les plans de Peter Joseph Lenné et plusieurs fois agrandi, la dernière fois en 1954. Il s'étend aujourd'hui sur 25 789 m². Son entrée principale se trouve au 25 Heinrich-Mann-Allee, près de l'Alter Friedhof.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un monument aux morts de l'ancienne ville de garnison de Potsdam se trouve devant l'entrée. D'abord prévu pour Berlin, il a été installé ici en octobre 1929. Il est dédié au corps sanitaire de l'armée impériale (Sanitätskorps)[2]. Sur un socle en forme de pyramide, deux soldats portent un camarade mourant. Le monument mesure 6,12 m de hauteur d'après un modèle de Dietzch ; Joseph Gobes, sculpteur berlinois, le termine après sa mort.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un monument aux morts de l'ancienne ville de garnison de Potsdam se trouve devant l'entrée. D'abord prévu pour Berlin, il a été installé ici en octobre 1929. Il est dédié au corps sanitaire de l'armée impériale (Sanitätskorps). Sur un socle en forme de pyramide, deux soldats portent un camarade mourant. Le monument mesure 6,12 m de hauteur d'après un modèle de Dietzch ; Joseph Gobes, sculpteur berlinois, le termine après sa mort.
 Le cimetière est gravement endommagé par le bombardement du 14 avril 1945. Après 1945, le nouveau pouvoir politique prosoviétique décide de détruire « l'esprit de Potsdam », et la majorité des habitants de Potsdam qui appartenaient à des familles prussiennes conservatrices fuient la ville vers Berlin-Ouest ou l'Allemagne de l'Ouest et la plupart de leurs sépultures de famille tombent en ruines. Celles-ci ne sont pas entretenues par le parti communiste au pouvoir.
 Aujourd'hui le cimetière donne une impression mitigée. D'une part, on rencontre des sépultures familiales négligées, d'autre part, des tombes remarquables restaurées avec amour et minutie. Certaines statues en bronze ont disparu ayant été fondues à l'époque de la République démocratique allemande (RDA).
 </t>
@@ -544,7 +558,9 @@
           <t>Monuments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Monument dédié aux victimes du bombardement du 14 avril 1945
 Monument aux morts de la Première et de la Seconde Guerre mondiale
@@ -576,12 +592,14 @@
           <t>Personnalités enterrées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Otto Becker (1er octobre 1870 – 16 octobre 1954), organiste et carillonneur de la église de la Garnison
 Eduard Claudius (1911–1976), écrivain
 Gustav Adolph Fintelmann (1846–1918), directeur royal des jardins de Potsdam
-Hans Geiger (1882–1945), physicien (la famille lui a fait ériger un second tombeau au cimetière de Grunewald de Berlin-Ouest)[3]
+Hans Geiger (1882–1945), physicien (la famille lui a fait ériger un second tombeau au cimetière de Grunewald de Berlin-Ouest)
 Bernard von Gélieu (1828–1907), général d'Infanterie
 Gustav Graben-Hoffmann (1820–1900), professeur de chant, compositeur et chanteur
 Egon von Kameke (1881–1955), peintre
@@ -630,7 +648,9 @@
           <t>Personnalités dont les tombes ont disparu</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Heinrich Basedow, écrivain
 Paul Heiland, collectionneur et historien de l'art
